--- a/KINR6AD1.xlsx
+++ b/KINR6AD1.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>Gest. de Projets (KINR6AD1) (AA)</t>
@@ -35,7 +35,7 @@
     <t>TYPE_PROJET</t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t>15:45</t>
@@ -44,7 +44,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>jeudi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>Gest. de Projets (KINR6AD1)   (AA)</t>
@@ -53,13 +53,10 @@
     <t>7:45</t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>13:30</t>
-  </si>
-  <si>
-    <t>16:45</t>
   </si>
 </sst>
 </file>
@@ -122,7 +119,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -153,7 +150,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -192,7 +189,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>10</v>
@@ -223,7 +220,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>13</v>
@@ -262,7 +259,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>7</v>
@@ -324,7 +321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>13</v>
@@ -363,7 +360,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>7</v>
@@ -378,7 +375,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>2.0</v>
@@ -402,7 +399,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>7</v>
